--- a/AdventDay2input.xlsx
+++ b/AdventDay2input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\source\codeworks\2021Advent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FDF446-F035-46FD-9F32-858617DD36F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4B1C38-6B20-48D3-AA52-B319E2094501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A570C9AC-558D-47E3-B3C8-C959BFFA596D}"/>
   </bookViews>
@@ -282,7 +282,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="000000000000"/>
+    <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -330,10 +330,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -651,7 +651,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -663,7 +663,7 @@
     <col min="10" max="10" width="19.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,12 +688,8 @@
       <c r="I1" s="3">
         <v>1110000001</v>
       </c>
-      <c r="J1" s="4" t="str">
-        <f>"'"&amp;I1&amp;"',"</f>
-        <v>'1110000001',</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -719,7 +715,7 @@
         <v>10100101000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +741,7 @@
         <v>101101010010</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -771,7 +767,7 @@
         <v>10111101010</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -797,7 +793,7 @@
         <v>100011100110</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,7 +819,7 @@
         <v>110100001011</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,7 +845,7 @@
         <v>100010001100</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,7 +871,7 @@
         <v>11110100110</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -901,7 +897,7 @@
         <v>110011110000</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,7 +923,7 @@
         <v>111010011001</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -953,7 +949,7 @@
         <v>111100100011</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -979,7 +975,7 @@
         <v>110101101010</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1005,7 +1001,7 @@
         <v>101001111100</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,7 +1027,7 @@
         <v>1110101110</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1057,7 +1053,7 @@
         <v>11100001110</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
